--- a/data/case.xlsx
+++ b/data/case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7785" windowWidth="19935"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7785" windowWidth="19935"/>
   </bookViews>
   <sheets>
     <sheet name="sendMCode" sheetId="1" state="visible" r:id="rId1"/>
@@ -51,6 +51,13 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -58,14 +65,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -73,6 +81,14 @@
       <name val="宋体"/>
       <charset val="0"/>
       <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -88,14 +104,37 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -110,23 +149,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -140,33 +163,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
       <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,187 +186,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,6 +377,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,26 +417,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,6 +455,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -485,10 +485,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="11" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -497,133 +497,133 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="16" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="15" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="19" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="15" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="10" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="21" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="20" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -960,8 +960,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>{"client_ip":"192.168.70.52","tmpl_id":"1","mobile":"normal_mobile"}</t>
+          <t>{"client_ip":"#ip#","tmpl_id":"1","mobile":"normal_mobile"}</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>{"client_ip":"192.168.70.52","tmpl_id":" ","mobile":"17786426991"}</t>
+          <t>{"client_ip":"#ip#","tmpl_id":" ","mobile":"17786426991"}</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>{"client_ip":"192.168.70.52","tmpl_id":"1","mobile":" "}</t>
+          <t>{"client_ip":"#ip#","tmpl_id":"1","mobile":" "}</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>{"client_ip":"192.168.70.52","tmpl_id":"3","mobile":"17786426991"}</t>
+          <t>{"client_ip":"#ip#","tmpl_id":"3","mobile":"17786426991"}</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>{"client_ip":"192.168.70.52","tmpl_id":"1","mobile":"17786426"}</t>
+          <t>{"client_ip":"#ip#","tmpl_id":"1","mobile":"17786426"}</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -1284,15 +1284,15 @@
   </sheetPr>
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col customWidth="1" max="2" min="2" style="1" width="19.125"/>
     <col customWidth="1" max="3" min="3" style="1" width="16"/>
-    <col customWidth="1" max="4" min="4" style="1" width="126.625"/>
+    <col customWidth="1" max="4" min="4" style="1" width="144.25"/>
     <col customWidth="1" max="5" min="5" style="1" width="17.5"/>
     <col customWidth="1" max="6" min="6" style="1" width="15.625"/>
     <col customWidth="1" max="7" min="7" style="1" width="45.125"/>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"#phone_code#","user_id":"username","channel_id":"1","pwd":"123456","mobile":"#register_mobile#","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"username","channel_id":"1","pwd":"#password#","mobile":"#register_mobile#","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"","user_id":"sandy","channel_id":"2","pwd":"123456","mobile":"18871361020","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"","user_id":"sandy","channel_id":"2","pwd":"#password#","mobile":"18871361020","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"","channel_id":"3","pwd":"123456","mobile":"18871361020","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"","channel_id":"3","pwd":"#password#","mobile":"18871361020","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -1527,7 +1527,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"sandy","channel_id":"","pwd":"123456","mobile":"18871361020","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"","pwd":"#password#","mobile":"18871361020","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"sandy","channel_id":"1","pwd":"","mobile":"18871361020","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"1","pwd":"","mobile":"18871361020","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -1607,7 +1607,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"sandy","channel_id":"2","pwd":"123456","mobile":"","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"2","pwd":"#password#","mobile":"","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"sandy","channel_id":"3","pwd":"123456","mobile":"18871361020","ip":""}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"3","pwd":"#password#","mobile":"18871361020","ip":""}</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"sandy","channel_id":"1","pwd":"123456","mobile":"18871362xxx","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"1","pwd":"#password#","mobile":"18871362xxx","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"sandy","channel_id":"1","pwd":"123456","mobile":"18871362010","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"1","pwd":"#password#","mobile":"18871362010","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"536561","user_id":"sandy","channel_id":"1","pwd":"123456","mobile":"18871362025","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"1","pwd":"#password#","mobile":"18871362025","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -1807,7 +1807,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"333157","user_id":"sandy","channel_id":"10","pwd":"123456","mobile":"18871361020","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"sandy","channel_id":"10","pwd":"#password#","mobile":"18871361020","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -1848,8 +1848,8 @@
   </sheetPr>
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1857,7 +1857,7 @@
     <col customWidth="1" max="1" min="1" style="1" width="7.625"/>
     <col customWidth="1" max="2" min="2" style="1" width="14.125"/>
     <col customWidth="1" max="3" min="3" style="1" width="62.375"/>
-    <col customWidth="1" max="4" min="4" style="1" width="70.25"/>
+    <col customWidth="1" max="4" min="4" style="1" width="127.75"/>
     <col customWidth="1" max="5" min="5" style="1" width="15.375"/>
     <col customWidth="1" max="6" min="6" style="1" width="42.625"/>
     <col customWidth="1" max="7" min="7" style="1" width="43.5"/>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>{"verify_code":"#phone_code#","user_id":"username","channel_id":"1","pwd":"123456","mobile":"#register_mobile#","ip":"192.168.70.52"}</t>
+          <t>{"verify_code":"#phone_code#","user_id":"username","channel_id":"1","pwd":"#password#","mobile":"#register_mobile#","ip":"#ip#"}</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>{"uid":"","true_name":"殇殇","cre_id":"420104198707034024"}</t>
+          <t>{"uid":"","true_name":"殇殇","cre_id":"#card_id#"}</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>{"uid":"100009824","true_name":"","cre_id":"420104198707034024"}</t>
+          <t>{"uid":"#user_id#","true_name":"","cre_id":"#card_id#"}</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>{"uid":"100009824","true_name":"殇殇","cre_id":""}</t>
+          <t>{"uid":"#user_id#","true_name":"殇殇","cre_id":""}</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>{"uid":"100009824","true_name":"殇殇","cre_id":"420104198714204a29"}</t>
+          <t>{"uid":"#user_id#","true_name":"殇殇","cre_id":"420104198714204a29"}</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>{"uid":"10086","true_name":"殇殇","cre_id":"420104198707034024"}</t>
+          <t>{"uid":"10086","true_name":"殇殇","cre_id":"#card_id#"}</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>{"uid":"100009824","true_name":"test","cre_id":"420104198707034024"}</t>
+          <t>{"uid":"#user_id#","true_name":"test","cre_id":"#card_id#"}</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
